--- a/team_specific_matrix/Idaho St._B.xlsx
+++ b/team_specific_matrix/Idaho St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1298076923076923</v>
+        <v>0.1464435146443515</v>
       </c>
       <c r="C2">
-        <v>0.6826923076923077</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004807692307692308</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1009615384615385</v>
+        <v>0.104602510460251</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08173076923076923</v>
+        <v>0.08368200836820083</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006802721088435374</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C3">
-        <v>0.0272108843537415</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0272108843537415</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7210884353741497</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.217687074829932</v>
+        <v>0.2111801242236025</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2888888888888889</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0582010582010582</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02116402116402116</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
-        <v>0.005291005291005291</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="F6">
-        <v>0.07936507936507936</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2328042328042328</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02116402116402116</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1904761904761905</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="R6">
-        <v>0.01587301587301587</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="S6">
-        <v>0.3756613756613756</v>
+        <v>0.3772727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1543624161073825</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03355704697986577</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05369127516778523</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08053691275167785</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01342281879194631</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1812080536912752</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="R7">
-        <v>0.06040268456375839</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="S7">
-        <v>0.4228187919463087</v>
+        <v>0.4156626506024096</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08638743455497382</v>
+        <v>0.08545034642032333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02879581151832461</v>
+        <v>0.02771362586605081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08376963350785341</v>
+        <v>0.08083140877598152</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07329842931937172</v>
+        <v>0.07390300230946882</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01047120418848168</v>
+        <v>0.009237875288683603</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1989528795811518</v>
+        <v>0.1939953810623557</v>
       </c>
       <c r="R8">
-        <v>0.0968586387434555</v>
+        <v>0.09468822170900693</v>
       </c>
       <c r="S8">
-        <v>0.4214659685863874</v>
+        <v>0.4341801385681293</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02097902097902098</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07692307692307693</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1118881118881119</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02097902097902098</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2657342657342657</v>
+        <v>0.2795031055900621</v>
       </c>
       <c r="R9">
-        <v>0.06993006993006994</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="S9">
-        <v>0.3426573426573427</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044613710554951</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02611534276387378</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="E10">
-        <v>0.002176278563656148</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="F10">
-        <v>0.06855277475516866</v>
+        <v>0.07102272727272728</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1011969532100109</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01305767138193689</v>
+        <v>0.01325757575757576</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2513601741022851</v>
+        <v>0.2471590909090909</v>
       </c>
       <c r="R10">
-        <v>0.07181719260065289</v>
+        <v>0.06628787878787878</v>
       </c>
       <c r="S10">
-        <v>0.3612622415669206</v>
+        <v>0.365530303030303</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1260162601626016</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1260162601626016</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K11">
-        <v>0.1951219512195122</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="L11">
-        <v>0.540650406504065</v>
+        <v>0.5181159420289855</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7751937984496124</v>
+        <v>0.762589928057554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1937984496124031</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="K12">
-        <v>0.007751937984496124</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L12">
-        <v>0.007751937984496124</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01550387596899225</v>
+        <v>0.02158273381294964</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02857142857142857</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G13">
-        <v>0.6857142857142857</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009950248756218905</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1442786069651741</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I15">
-        <v>0.1144278606965174</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="J15">
-        <v>0.3631840796019901</v>
+        <v>0.3652173913043478</v>
       </c>
       <c r="K15">
-        <v>0.06467661691542288</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01492537313432836</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04477611940298507</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2437810945273632</v>
+        <v>0.2478260869565218</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01923076923076923</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1794871794871795</v>
+        <v>0.1791907514450867</v>
       </c>
       <c r="I16">
-        <v>0.03205128205128205</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="J16">
-        <v>0.4358974358974359</v>
+        <v>0.4393063583815029</v>
       </c>
       <c r="K16">
-        <v>0.1538461538461539</v>
+        <v>0.1560693641618497</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03846153846153846</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1217948717948718</v>
+        <v>0.1098265895953757</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009925558312655087</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2158808933002482</v>
+        <v>0.210989010989011</v>
       </c>
       <c r="I17">
-        <v>0.07940446650124069</v>
+        <v>0.08131868131868132</v>
       </c>
       <c r="J17">
-        <v>0.3870967741935484</v>
+        <v>0.3934065934065934</v>
       </c>
       <c r="K17">
-        <v>0.08933002481389578</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02233250620347394</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07444168734491315</v>
+        <v>0.07472527472527472</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1215880893300248</v>
+        <v>0.1120879120879121</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02419354838709677</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2096774193548387</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I18">
-        <v>0.09677419354838709</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="J18">
-        <v>0.3387096774193548</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="K18">
-        <v>0.1129032258064516</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04032258064516129</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08870967741935484</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08870967741935484</v>
+        <v>0.09774436090225563</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02741116751269036</v>
+        <v>0.02669039145907473</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2152284263959391</v>
+        <v>0.2170818505338078</v>
       </c>
       <c r="I19">
-        <v>0.07309644670050762</v>
+        <v>0.07384341637010676</v>
       </c>
       <c r="J19">
-        <v>0.3350253807106599</v>
+        <v>0.3345195729537366</v>
       </c>
       <c r="K19">
-        <v>0.1147208121827411</v>
+        <v>0.1129893238434164</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01725888324873097</v>
+        <v>0.0195729537366548</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09543147208121827</v>
+        <v>0.09608540925266904</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1218274111675127</v>
+        <v>0.1192170818505338</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Idaho St._B.xlsx
+++ b/team_specific_matrix/Idaho St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1464435146443515</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="C2">
-        <v>0.6527196652719666</v>
+        <v>0.6383763837638377</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01255230125523013</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.104602510460251</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08368200836820083</v>
+        <v>0.07749077490774908</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006211180124223602</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.03105590062111801</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03726708074534162</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7134831460674157</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2111801242236025</v>
+        <v>0.2191011235955056</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.26</v>
+        <v>0.2456140350877193</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05454545454545454</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="E6">
-        <v>0.004545454545454545</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="F6">
-        <v>0.08181818181818182</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2545454545454545</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01818181818181818</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1772727272727273</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R6">
-        <v>0.01363636363636364</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="S6">
-        <v>0.3772727272727273</v>
+        <v>0.3647058823529412</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1566265060240964</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03012048192771084</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05421686746987952</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08433734939759036</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01807228915662651</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1867469879518072</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="R7">
-        <v>0.05421686746987952</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S7">
-        <v>0.4156626506024096</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08545034642032333</v>
+        <v>0.08979591836734693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02771362586605081</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08083140877598152</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07390300230946882</v>
+        <v>0.06938775510204082</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009237875288683603</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1939953810623557</v>
+        <v>0.1959183673469388</v>
       </c>
       <c r="R8">
-        <v>0.09468822170900693</v>
+        <v>0.09591836734693877</v>
       </c>
       <c r="S8">
-        <v>0.4341801385681293</v>
+        <v>0.4204081632653061</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06832298136645963</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1118012422360248</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01863354037267081</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2795031055900621</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="R9">
-        <v>0.06832298136645963</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="S9">
-        <v>0.3478260869565217</v>
+        <v>0.3567567567567568</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1041666666666667</v>
+        <v>0.1012765957446809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02651515151515152</v>
+        <v>0.02638297872340425</v>
       </c>
       <c r="E10">
-        <v>0.001893939393939394</v>
+        <v>0.001702127659574468</v>
       </c>
       <c r="F10">
-        <v>0.07102272727272728</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1041666666666667</v>
+        <v>0.1046808510638298</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01325757575757576</v>
+        <v>0.01446808510638298</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2471590909090909</v>
+        <v>0.2459574468085106</v>
       </c>
       <c r="R10">
-        <v>0.06628787878787878</v>
+        <v>0.06978723404255319</v>
       </c>
       <c r="S10">
-        <v>0.365530303030303</v>
+        <v>0.3676595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1376811594202899</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1304347826086956</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="K11">
-        <v>0.2028985507246377</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="L11">
-        <v>0.5181159420289855</v>
+        <v>0.5158227848101266</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0108695652173913</v>
+        <v>0.00949367088607595</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.762589928057554</v>
+        <v>0.7484276729559748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014388489208633</v>
+        <v>0.2138364779874214</v>
       </c>
       <c r="K12">
-        <v>0.007194244604316547</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="L12">
-        <v>0.007194244604316547</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02158273381294964</v>
+        <v>0.02515723270440252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6904761904761905</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2380952380952381</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008695652173913044</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1521739130434783</v>
+        <v>0.1673151750972763</v>
       </c>
       <c r="I15">
-        <v>0.1043478260869565</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="J15">
-        <v>0.3652173913043478</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="K15">
-        <v>0.05652173913043478</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05217391304347826</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2478260869565218</v>
+        <v>0.2529182879377432</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02890173410404624</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1791907514450867</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="I16">
-        <v>0.02890173410404624</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="J16">
-        <v>0.4393063583815029</v>
+        <v>0.4336734693877551</v>
       </c>
       <c r="K16">
-        <v>0.1560693641618497</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01734104046242774</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04046242774566474</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1098265895953757</v>
+        <v>0.1173469387755102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01758241758241758</v>
+        <v>0.02348336594911937</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.210989010989011</v>
+        <v>0.2093933463796477</v>
       </c>
       <c r="I17">
-        <v>0.08131868131868132</v>
+        <v>0.08806262230919765</v>
       </c>
       <c r="J17">
-        <v>0.3934065934065934</v>
+        <v>0.3913894324853229</v>
       </c>
       <c r="K17">
-        <v>0.08791208791208792</v>
+        <v>0.08610567514677103</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02197802197802198</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07472527472527472</v>
+        <v>0.08023483365949119</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1120879120879121</v>
+        <v>0.1017612524461839</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02255639097744361</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2105263157894737</v>
+        <v>0.2064516129032258</v>
       </c>
       <c r="I18">
-        <v>0.09774436090225563</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J18">
-        <v>0.3383458646616541</v>
+        <v>0.3290322580645161</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04511278195488722</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08270676691729323</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09774436090225563</v>
+        <v>0.1032258064516129</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02669039145907473</v>
+        <v>0.0288</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2170818505338078</v>
+        <v>0.2208</v>
       </c>
       <c r="I19">
-        <v>0.07384341637010676</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="J19">
-        <v>0.3345195729537366</v>
+        <v>0.332</v>
       </c>
       <c r="K19">
-        <v>0.1129893238434164</v>
+        <v>0.1136</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0195729537366548</v>
+        <v>0.0208</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09608540925266904</v>
+        <v>0.092</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1192170818505338</v>
+        <v>0.1152</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Idaho St._B.xlsx
+++ b/team_specific_matrix/Idaho St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1549815498154982</v>
+        <v>0.1546762589928058</v>
       </c>
       <c r="C2">
-        <v>0.6383763837638377</v>
+        <v>0.6402877697841727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01476014760147601</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1143911439114391</v>
+        <v>0.1115107913669065</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07749077490774908</v>
+        <v>0.07913669064748201</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005617977528089887</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C3">
-        <v>0.02808988764044944</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03370786516853932</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7134831460674157</v>
+        <v>0.7103825136612022</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2191011235955056</v>
+        <v>0.2240437158469945</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7017543859649122</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2456140350877193</v>
+        <v>0.2372881355932203</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01568627450980392</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="E6">
-        <v>0.00392156862745098</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="F6">
-        <v>0.09019607843137255</v>
+        <v>0.08679245283018867</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2470588235294118</v>
+        <v>0.2415094339622642</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01568627450980392</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1764705882352941</v>
+        <v>0.1773584905660377</v>
       </c>
       <c r="R6">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="S6">
-        <v>0.3647058823529412</v>
+        <v>0.3773584905660378</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1473684210526316</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02631578947368421</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05263157894736842</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09473684210526316</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01578947368421053</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1894736842105263</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="R7">
-        <v>0.05263157894736842</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="S7">
-        <v>0.4210526315789473</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08979591836734693</v>
+        <v>0.08840864440078586</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03061224489795918</v>
+        <v>0.02946954813359529</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08571428571428572</v>
+        <v>0.08644400785854617</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06938775510204082</v>
+        <v>0.07072691552062868</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01224489795918367</v>
+        <v>0.01178781925343811</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1959183673469388</v>
+        <v>0.2023575638506876</v>
       </c>
       <c r="R8">
-        <v>0.09591836734693877</v>
+        <v>0.0962671905697446</v>
       </c>
       <c r="S8">
-        <v>0.4204081632653061</v>
+        <v>0.4145383104125737</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08648648648648649</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02162162162162162</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07567567567567568</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1081081081081081</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01621621621621622</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2702702702702703</v>
+        <v>0.267379679144385</v>
       </c>
       <c r="R9">
-        <v>0.06486486486486487</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="S9">
-        <v>0.3567567567567568</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1012765957446809</v>
+        <v>0.1006600660066007</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02638297872340425</v>
+        <v>0.02722772277227723</v>
       </c>
       <c r="E10">
-        <v>0.001702127659574468</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="F10">
-        <v>0.06808510638297872</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1046808510638298</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01446808510638298</v>
+        <v>0.01402640264026403</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2459574468085106</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>0.06978723404255319</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="S10">
-        <v>0.3676595744680851</v>
+        <v>0.3638613861386139</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1455696202531646</v>
+        <v>0.1484848484848485</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1265822784810127</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K11">
-        <v>0.2025316455696203</v>
+        <v>0.203030303030303</v>
       </c>
       <c r="L11">
-        <v>0.5158227848101266</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00949367088607595</v>
+        <v>0.01212121212121212</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7484276729559748</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138364779874214</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="K12">
-        <v>0.006289308176100629</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="L12">
-        <v>0.006289308176100629</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02515723270440252</v>
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G13">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007782101167315175</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1673151750972763</v>
+        <v>0.1735849056603773</v>
       </c>
       <c r="I15">
-        <v>0.09727626459143969</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="J15">
-        <v>0.3424124513618677</v>
+        <v>0.3358490566037736</v>
       </c>
       <c r="K15">
-        <v>0.0622568093385214</v>
+        <v>0.06037735849056604</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01167315175097276</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05836575875486381</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2529182879377432</v>
+        <v>0.260377358490566</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03061224489795918</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.173469387755102</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="I16">
-        <v>0.02551020408163265</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="J16">
-        <v>0.4336734693877551</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="K16">
-        <v>0.1581632653061225</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01530612244897959</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04591836734693878</v>
+        <v>0.04975124378109453</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1173469387755102</v>
+        <v>0.1194029850746269</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02348336594911937</v>
+        <v>0.02425373134328358</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2093933463796477</v>
+        <v>0.2033582089552239</v>
       </c>
       <c r="I17">
-        <v>0.08806262230919765</v>
+        <v>0.08582089552238806</v>
       </c>
       <c r="J17">
-        <v>0.3913894324853229</v>
+        <v>0.3899253731343283</v>
       </c>
       <c r="K17">
-        <v>0.08610567514677103</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01956947162426614</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08023483365949119</v>
+        <v>0.07835820895522388</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1017612524461839</v>
+        <v>0.1063432835820896</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02580645161290323</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2064516129032258</v>
+        <v>0.20625</v>
       </c>
       <c r="I18">
-        <v>0.09677419354838709</v>
+        <v>0.09375</v>
       </c>
       <c r="J18">
-        <v>0.3290322580645161</v>
+        <v>0.325</v>
       </c>
       <c r="K18">
-        <v>0.1161290322580645</v>
+        <v>0.11875</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.05161290322580645</v>
+        <v>0.05625</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07096774193548387</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032258064516129</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0288</v>
+        <v>0.02792862684251358</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208</v>
+        <v>0.2234290147401086</v>
       </c>
       <c r="I19">
-        <v>0.07679999999999999</v>
+        <v>0.07525213343677269</v>
       </c>
       <c r="J19">
-        <v>0.332</v>
+        <v>0.3320403413498836</v>
       </c>
       <c r="K19">
-        <v>0.1136</v>
+        <v>0.1140418929402638</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0208</v>
+        <v>0.02172226532195501</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.092</v>
+        <v>0.09309542280837858</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1152</v>
+        <v>0.1124903025601241</v>
       </c>
     </row>
   </sheetData>
